--- a/data/trans_orig/P78C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90953EB5-E9DB-437F-B27B-FE5953873544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2940DAD-DE03-4A97-8AE3-657097787CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6927FFD-2FEA-443B-B562-EFAA9590E776}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0AFAD4E5-E680-4A43-B514-379DC7337A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos del alquiler en 2023 (Tasa respuesta: 1,68%)</t>
   </si>
@@ -65,313 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55574B16-D0B0-4272-8A5D-0D88821A069D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07613E-6130-4727-8A45-CAE117D35BB7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -904,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3561</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -919,85 +895,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>459</v>
+        <v>5144</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>459</v>
+        <v>8706</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>430</v>
+        <v>2711</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>589</v>
+        <v>3038</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,153 +982,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>160</v>
+        <v>3889</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7855</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>889</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
       <c r="N6" s="7">
-        <v>1048</v>
+        <v>11744</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3995</v>
+        <v>7623</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9360</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5546</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="7">
-        <v>11</v>
-      </c>
       <c r="N7" s="7">
-        <v>9542</v>
+        <v>16983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>160</v>
+        <v>2324</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>2400</v>
+        <v>10196</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>2559</v>
+        <v>12520</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,54 +1137,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>4155</v>
+        <v>9947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>7946</v>
+        <v>19556</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>12101</v>
+        <v>29503</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1217,97 +1193,97 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>9059</v>
+        <v>7308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>10610</v>
+        <v>4328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>19669</v>
+        <v>11637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2847</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4945</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>2544</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11090</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
       <c r="N11" s="7">
-        <v>13635</v>
+        <v>7791</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,153 +1292,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10155</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
-        <v>11603</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>26</v>
-      </c>
       <c r="I12" s="7">
-        <v>21700</v>
+        <v>9273</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>33304</v>
+        <v>19428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>7991</v>
+        <v>17240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>4707</v>
+        <v>22689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>12697</v>
+        <v>39929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>2931</v>
+        <v>6462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>2924</v>
+        <v>6949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>5855</v>
+        <v>13410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,153 +1447,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>10922</v>
+        <v>23702</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>7631</v>
+        <v>29638</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>18552</v>
+        <v>53339</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>19118</v>
+        <v>35733</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>27012</v>
+        <v>41521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7">
-        <v>46131</v>
+        <v>77254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>6637</v>
+        <v>11960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>7414</v>
+        <v>24800</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>14050</v>
+        <v>36760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7">
-        <v>25755</v>
+        <v>47693</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I18" s="7">
-        <v>34426</v>
+        <v>66321</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="N18" s="7">
-        <v>60181</v>
+        <v>114014</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40164</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>66</v>
-      </c>
-      <c r="I19" s="7">
-        <v>48334</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>106</v>
-      </c>
-      <c r="N19" s="7">
-        <v>88498</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7">
-        <v>12431</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>26</v>
-      </c>
-      <c r="I20" s="7">
-        <v>24258</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>41</v>
-      </c>
-      <c r="N20" s="7">
-        <v>36689</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>55</v>
-      </c>
-      <c r="D21" s="7">
-        <v>52595</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>92</v>
-      </c>
-      <c r="I21" s="7">
-        <v>72592</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>147</v>
-      </c>
-      <c r="N21" s="7">
-        <v>125187</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
